--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:12:46+00:00</t>
+    <t>2023-05-07T19:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:13:00+00:00</t>
+    <t>2023-05-07T19:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:16:02+00:00</t>
+    <t>2023-05-07T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:08:14+00:00</t>
+    <t>2023-05-07T21:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:39:12+00:00</t>
+    <t>2023-05-07T21:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:52:36+00:00</t>
+    <t>2023-05-07T22:07:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:07:44+00:00</t>
+    <t>2023-05-07T22:12:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 TC</t>
+    <t>HL7 PT TC</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:12:24+00:00</t>
+    <t>2023-05-07T22:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:29:01+00:00</t>
+    <t>2023-05-07T22:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:36:34+00:00</t>
+    <t>2023-05-07T22:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:59:45+00:00</t>
+    <t>2023-05-07T23:08:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:08:30+00:00</t>
+    <t>2023-05-07T23:16:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:16:14+00:00</t>
+    <t>2023-05-07T23:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:22:06+00:00</t>
+    <t>2023-05-07T23:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:26:27+00:00</t>
+    <t>2023-05-07T23:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,7 +132,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:DataElement</t>
+    <t>element:Resource</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:39:48+00:00</t>
+    <t>2023-05-08T00:33:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,6 +373,9 @@
     <t>required</t>
   </si>
   <si>
+    <t>http://example.com/fhir/example/ValueSet/CardInfoTypeVS</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -392,6 +395,9 @@
   </si>
   <si>
     <t>Extension.extension:card-country.value[x]</t>
+  </si>
+  <si>
+    <t>http://example.com/fhir/example/ValueSet/CardCountryVS</t>
   </si>
   <si>
     <t>base64Binary
@@ -757,7 +763,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.4375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1673,7 +1679,7 @@
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>76</v>
@@ -1691,7 +1697,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1711,13 +1717,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -1816,7 +1822,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>99</v>
@@ -1919,7 +1925,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>101</v>
@@ -2022,7 +2028,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>103</v>
@@ -2065,7 +2071,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>76</v>
@@ -2127,7 +2133,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>111</v>
@@ -2190,7 +2196,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -2208,7 +2214,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2333,10 +2339,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2359,7 +2365,7 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>113</v>
@@ -2416,7 +2422,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:33:17+00:00</t>
+    <t>2023-05-08T00:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CardInfo.xlsx
+++ b/StructureDefinition-CardInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:44:39+00:00</t>
+    <t>2023-06-02T10:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
